--- a/worksheet/room_one.xlsx
+++ b/worksheet/room_one.xlsx
@@ -1,98 +1,170 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.0"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="items" sheetId="3" state="visible" r:id="rId3"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="1">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-  </x:cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="3a3c84"/>
+        <a:srgbClr val="3A3C84"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="faf3db"/>
+        <a:srgbClr val="FAF3DB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6182d6"/>
+        <a:srgbClr val="6182D6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ff843a"/>
+        <a:srgbClr val="FF843A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="b2b2b2"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffd700"/>
+        <a:srgbClr val="FFD700"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="289b6e"/>
+        <a:srgbClr val="289B6E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9d5cbb"/>
+        <a:srgbClr val="9D5CBB"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -110,7 +182,7 @@
         <a:cs typeface="HNC_GO_B_HINT_GS"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -306,18 +378,254 @@
       <a:lstStyle/>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetData/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>가나다</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sfdafsadsfaddsaf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sfdafsadsfaddsaf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>